--- a/texts/theater/theater.xlsx
+++ b/texts/theater/theater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21195" windowHeight="13020"/>
+    <workbookView windowWidth="23340" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>部屋名</t>
   </si>
@@ -113,13 +113,16 @@
     <t>メインコミュ　第4話 ふるえるこころ</t>
   </si>
   <si>
-    <t>資料室</t>
+    <t>資料室&lt;img src="images/library_plate.jpg" height="100px"&gt;</t>
+  </si>
+  <si>
+    <t>メインコミュ  第65話 この、てのひらのなか</t>
   </si>
   <si>
     <t>images/library.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">プラチナスターシアター ～Persona Voice～ 第5話 </t>
+    <t>プラチナスターシアター ～Persona Voice～ 第5話、プラチナスターシアター リフレインキス 第4話</t>
   </si>
   <si>
     <t>地下室</t>
@@ -157,6 +160,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -165,13 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -181,16 +245,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,15 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -219,75 +291,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -309,175 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +586,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -594,6 +621,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,39 +669,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -672,11 +677,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,7 +691,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +700,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,6 +997,174 @@
         <a:xfrm>
           <a:off x="9525" y="9525"/>
           <a:ext cx="4045585" cy="2319020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図形 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2400300"/>
+          <a:ext cx="10820400" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図形 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="2400300"/>
+          <a:ext cx="10820400" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図形 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19519900" y="2400300"/>
+          <a:ext cx="10820400" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図形 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30556200" y="2400300"/>
+          <a:ext cx="10820400" cy="6096000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,7 +1441,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1432,24 +1603,27 @@
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1464,8 +1638,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AC67" sqref="AC67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
